--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-19.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.38</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>2.54</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -832,16 +832,16 @@
         <v>1.06</v>
       </c>
       <c r="P3" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>2.74</v>
       </c>
       <c r="T3" t="n">
         <v>1.03</v>
@@ -850,10 +850,10 @@
         <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="W3" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="X3" t="n">
         <v>980</v>
@@ -946,7 +946,7 @@
         <v>2.28</v>
       </c>
       <c r="I4" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -964,25 +964,25 @@
         <v>5.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R4" t="n">
         <v>1.6</v>
       </c>
       <c r="S4" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T4" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U4" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="V4" t="n">
         <v>1.76</v>
@@ -997,7 +997,7 @@
         <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA4" t="n">
         <v>32</v>
@@ -1078,40 +1078,40 @@
         <v>2.44</v>
       </c>
       <c r="H5" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
         <v>1.03</v>
@@ -1120,7 +1120,7 @@
         <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W5" t="n">
         <v>1.69</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H6" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
         <v>3.65</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,22 +1231,22 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="O6" t="n">
         <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S6" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="T6" t="n">
         <v>1.03</v>
@@ -1258,7 +1258,7 @@
         <v>1.38</v>
       </c>
       <c r="W6" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X6" t="n">
         <v>980</v>
@@ -1351,22 +1351,22 @@
         <v>2.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O7" t="n">
         <v>1.54</v>
@@ -1375,13 +1375,13 @@
         <v>1.54</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="R7" t="n">
         <v>1.19</v>
       </c>
       <c r="S7" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="T7" t="n">
         <v>2.12</v>
@@ -1390,10 +1390,10 @@
         <v>1.75</v>
       </c>
       <c r="V7" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X7" t="n">
         <v>11</v>
@@ -1480,16 +1480,16 @@
         <v>4.2</v>
       </c>
       <c r="G8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="I8" t="n">
         <v>1.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
         <v>4.2</v>
@@ -1507,16 +1507,16 @@
         <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R8" t="n">
         <v>1.39</v>
       </c>
       <c r="S8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T8" t="n">
         <v>1.79</v>
@@ -1528,7 +1528,7 @@
         <v>2.1</v>
       </c>
       <c r="W8" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X8" t="n">
         <v>20</v>
@@ -1612,46 +1612,46 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="G9" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="H9" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
         <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.08</v>
       </c>
-      <c r="N9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.37</v>
-      </c>
       <c r="P9" t="n">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="R9" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="S9" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="T9" t="n">
         <v>1.69</v>
@@ -1663,7 +1663,7 @@
         <v>1.4</v>
       </c>
       <c r="W9" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="X9" t="n">
         <v>14.5</v>
@@ -1777,7 +1777,7 @@
         <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q10" t="n">
         <v>1.49</v>
@@ -2053,7 +2053,7 @@
         <v>1.13</v>
       </c>
       <c r="R12" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S12" t="n">
         <v>1.13</v>
@@ -2290,7 +2290,7 @@
         <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
         <v>2.52</v>
@@ -2311,28 +2311,28 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="R14" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="T14" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="U14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="V14" t="n">
         <v>1.65</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G15" t="n">
         <v>3.15</v>
       </c>
       <c r="H15" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I15" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J15" t="n">
         <v>3.35</v>
@@ -2446,7 +2446,7 @@
         <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O15" t="n">
         <v>1.4</v>
@@ -2458,7 +2458,7 @@
         <v>2.18</v>
       </c>
       <c r="R15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S15" t="n">
         <v>4.1</v>
@@ -2467,7 +2467,7 @@
         <v>1.86</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V15" t="n">
         <v>1.6</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H16" t="n">
         <v>2.12</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="J16" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="K16" t="n">
         <v>980</v>
@@ -2581,16 +2581,16 @@
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="O16" t="n">
         <v>1.02</v>
       </c>
       <c r="P16" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R16" t="n">
         <v>1.18</v>
@@ -2605,7 +2605,7 @@
         <v>1.03</v>
       </c>
       <c r="V16" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="W16" t="n">
         <v>1.32</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="G17" t="n">
         <v>2.2</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="J17" t="n">
         <v>2.92</v>
@@ -2710,28 +2710,28 @@
         <v>980</v>
       </c>
       <c r="L17" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O17" t="n">
         <v>1.02</v>
       </c>
       <c r="P17" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R17" t="n">
         <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T17" t="n">
         <v>1.03</v>
@@ -2740,7 +2740,7 @@
         <v>1.03</v>
       </c>
       <c r="V17" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="W17" t="n">
         <v>1.83</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="G18" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>2.64</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
         <v>4.4</v>
@@ -2851,22 +2851,22 @@
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>2.02</v>
+        <v>1.11</v>
       </c>
       <c r="O18" t="n">
         <v>1.27</v>
       </c>
       <c r="P18" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.79</v>
+        <v>1.27</v>
       </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S18" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T18" t="n">
         <v>1.03</v>
@@ -2875,10 +2875,10 @@
         <v>1.03</v>
       </c>
       <c r="V18" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W18" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2965,16 +2965,16 @@
         <v>3.1</v>
       </c>
       <c r="G19" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="H19" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I19" t="n">
         <v>2.44</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="n">
         <v>4.1</v>
@@ -2986,7 +2986,7 @@
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.25</v>
@@ -3001,7 +3001,7 @@
         <v>1.43</v>
       </c>
       <c r="S19" t="n">
-        <v>2.86</v>
+        <v>2.6</v>
       </c>
       <c r="T19" t="n">
         <v>1.64</v>
@@ -3013,7 +3013,7 @@
         <v>1.7</v>
       </c>
       <c r="W19" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="X19" t="n">
         <v>22</v>
@@ -3028,7 +3028,7 @@
         <v>36</v>
       </c>
       <c r="AB19" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC19" t="n">
         <v>10.5</v>
@@ -3103,16 +3103,16 @@
         <v>1000</v>
       </c>
       <c r="H20" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="I20" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="J20" t="n">
         <v>4.4</v>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3121,22 +3121,22 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>2.38</v>
+        <v>1.11</v>
       </c>
       <c r="O20" t="n">
         <v>1.15</v>
       </c>
       <c r="P20" t="n">
-        <v>2.38</v>
+        <v>1.57</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="R20" t="n">
         <v>1.57</v>
       </c>
       <c r="S20" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="T20" t="n">
         <v>1.03</v>
@@ -3148,7 +3148,7 @@
         <v>2.6</v>
       </c>
       <c r="W20" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="G21" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="H21" t="n">
         <v>1.04</v>
       </c>
       <c r="I21" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K21" t="n">
         <v>950</v>
@@ -3262,16 +3262,16 @@
         <v>1.16</v>
       </c>
       <c r="P21" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q21" t="n">
         <v>1.16</v>
       </c>
       <c r="R21" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T21" t="n">
         <v>1.03</v>
@@ -3280,10 +3280,10 @@
         <v>1.03</v>
       </c>
       <c r="V21" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W21" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3370,7 +3370,7 @@
         <v>1.79</v>
       </c>
       <c r="G22" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H22" t="n">
         <v>4.5</v>
@@ -3472,7 +3472,7 @@
         <v>7.4</v>
       </c>
       <c r="AO22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="G23" t="n">
         <v>2.74</v>
@@ -3511,7 +3511,7 @@
         <v>2.72</v>
       </c>
       <c r="I23" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="J23" t="n">
         <v>3.6</v>
@@ -3526,22 +3526,22 @@
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="O23" t="n">
         <v>1.26</v>
       </c>
       <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R23" t="n">
         <v>1.38</v>
       </c>
-      <c r="Q23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.37</v>
-      </c>
       <c r="S23" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T23" t="n">
         <v>1.03</v>
@@ -3550,10 +3550,10 @@
         <v>1.03</v>
       </c>
       <c r="V23" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="W23" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G24" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
         <v>4.8</v>
@@ -3652,7 +3652,7 @@
         <v>4.3</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L24" t="n">
         <v>1.24</v>
@@ -3667,13 +3667,13 @@
         <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q24" t="n">
         <v>1.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S24" t="n">
         <v>2.22</v>
@@ -3688,7 +3688,7 @@
         <v>1.27</v>
       </c>
       <c r="W24" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X24" t="n">
         <v>36</v>
@@ -3700,7 +3700,7 @@
         <v>44</v>
       </c>
       <c r="AA24" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB24" t="n">
         <v>980</v>
@@ -3715,7 +3715,7 @@
         <v>46</v>
       </c>
       <c r="AF24" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
         <v>980</v>
@@ -3724,22 +3724,22 @@
         <v>980</v>
       </c>
       <c r="AI24" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AJ24" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AL24" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AM24" t="n">
         <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AO24" t="n">
         <v>36</v>
@@ -3775,7 +3775,7 @@
         <v>1.95</v>
       </c>
       <c r="G25" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="H25" t="n">
         <v>3.65</v>
@@ -3796,10 +3796,10 @@
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P25" t="n">
         <v>2.46</v>
@@ -3808,76 +3808,76 @@
         <v>1.59</v>
       </c>
       <c r="R25" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="S25" t="n">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="T25" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>2.48</v>
       </c>
       <c r="V25" t="n">
         <v>1.33</v>
       </c>
       <c r="W25" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="X25" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="Y25" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="Z25" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AB25" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AF25" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AG25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH25" t="n">
         <v>16</v>
       </c>
-      <c r="AH25" t="n">
-        <v>23</v>
-      </c>
       <c r="AI25" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AJ25" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AK25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AO25" t="n">
         <v>28</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G26" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H26" t="n">
         <v>3.3</v>
@@ -3928,13 +3928,13 @@
         <v>1.3</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>1.11</v>
+        <v>4.7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
         <v>2.28</v>
@@ -3943,76 +3943,76 @@
         <v>1.66</v>
       </c>
       <c r="R26" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S26" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="T26" t="n">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="U26" t="n">
-        <v>1.03</v>
+        <v>2.36</v>
       </c>
       <c r="V26" t="n">
         <v>1.38</v>
       </c>
       <c r="W26" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -4048,7 +4048,7 @@
         <v>14.5</v>
       </c>
       <c r="H27" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="I27" t="n">
         <v>1.49</v>
@@ -4057,7 +4057,7 @@
         <v>4.3</v>
       </c>
       <c r="K27" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4075,25 +4075,25 @@
         <v>1.72</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R27" t="n">
         <v>1.27</v>
       </c>
       <c r="S27" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="T27" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="U27" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="V27" t="n">
         <v>3</v>
       </c>
       <c r="W27" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X27" t="n">
         <v>980</v>
@@ -4210,7 +4210,7 @@
         <v>2.04</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R28" t="n">
         <v>1.4</v>
@@ -4234,7 +4234,7 @@
         <v>21</v>
       </c>
       <c r="Y28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z28" t="n">
         <v>55</v>
@@ -4264,7 +4264,7 @@
         <v>23</v>
       </c>
       <c r="AI28" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ28" t="n">
         <v>16.5</v>
@@ -4318,16 +4318,16 @@
         <v>5.3</v>
       </c>
       <c r="H29" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="I29" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
         <v>3.55</v>
       </c>
       <c r="K29" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4336,7 +4336,7 @@
         <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O29" t="n">
         <v>1.31</v>
@@ -4348,10 +4348,10 @@
         <v>1.98</v>
       </c>
       <c r="R29" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>1.05</v>
       </c>
       <c r="T29" t="n">
         <v>1.59</v>
@@ -4360,13 +4360,13 @@
         <v>1.68</v>
       </c>
       <c r="V29" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W29" t="n">
         <v>1.23</v>
       </c>
       <c r="X29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y29" t="n">
         <v>12</v>
@@ -4456,7 +4456,7 @@
         <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J30" t="n">
         <v>3.8</v>
@@ -4471,88 +4471,88 @@
         <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>2.16</v>
+        <v>4.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P30" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R30" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="S30" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="T30" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="U30" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W30" t="n">
         <v>2.06</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="Z30" t="n">
         <v>980</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB30" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC30" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AE30" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AF30" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM30" t="n">
         <v>85</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
@@ -4594,10 +4594,10 @@
         <v>3.45</v>
       </c>
       <c r="J31" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K31" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L31" t="n">
         <v>1.33</v>
@@ -4621,13 +4621,13 @@
         <v>1.41</v>
       </c>
       <c r="S31" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T31" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="U31" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="V31" t="n">
         <v>1.41</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="G32" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H32" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="I32" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K32" t="n">
-        <v>6.2</v>
+        <v>980</v>
       </c>
       <c r="L32" t="n">
         <v>1.37</v>
@@ -4741,22 +4741,22 @@
         <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="O32" t="n">
         <v>1.02</v>
       </c>
       <c r="P32" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R32" t="n">
         <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="T32" t="n">
         <v>1.03</v>
@@ -4765,10 +4765,10 @@
         <v>1.03</v>
       </c>
       <c r="V32" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="W32" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G33" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H33" t="n">
         <v>6.2</v>
       </c>
       <c r="I33" t="n">
-        <v>140</v>
+        <v>870</v>
       </c>
       <c r="J33" t="n">
         <v>3.9</v>
       </c>
       <c r="K33" t="n">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="L33" t="n">
         <v>1.27</v>
@@ -4876,22 +4876,22 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="O33" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P33" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="Q33" t="n">
         <v>1.63</v>
       </c>
       <c r="R33" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S33" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T33" t="n">
         <v>1.03</v>
@@ -4900,10 +4900,10 @@
         <v>1.03</v>
       </c>
       <c r="V33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W33" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4993,7 +4993,7 @@
         <v>1.44</v>
       </c>
       <c r="H34" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="I34" t="n">
         <v>980</v>
@@ -5002,7 +5002,7 @@
         <v>4.3</v>
       </c>
       <c r="K34" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="L34" t="n">
         <v>1.33</v>
@@ -5011,13 +5011,13 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="O34" t="n">
         <v>1.01</v>
       </c>
       <c r="P34" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q34" t="n">
         <v>1.85</v>
@@ -5125,7 +5125,7 @@
         <v>2.26</v>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H35" t="n">
         <v>4.1</v>
@@ -5134,7 +5134,7 @@
         <v>4.2</v>
       </c>
       <c r="J35" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K35" t="n">
         <v>3.2</v>
@@ -5146,7 +5146,7 @@
         <v>1.13</v>
       </c>
       <c r="N35" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O35" t="n">
         <v>1.54</v>
@@ -5155,7 +5155,7 @@
         <v>1.58</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R35" t="n">
         <v>1.21</v>
@@ -5173,7 +5173,7 @@
         <v>1.31</v>
       </c>
       <c r="W35" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="X35" t="n">
         <v>8.6</v>
@@ -5221,7 +5221,7 @@
         <v>60</v>
       </c>
       <c r="AM35" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN35" t="n">
         <v>30</v>
@@ -5260,7 +5260,7 @@
         <v>2.16</v>
       </c>
       <c r="G36" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
         <v>3.9</v>
@@ -5272,7 +5272,7 @@
         <v>3.15</v>
       </c>
       <c r="K36" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5299,7 +5299,7 @@
         <v>3.9</v>
       </c>
       <c r="T36" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U36" t="n">
         <v>2</v>
@@ -5308,10 +5308,10 @@
         <v>1.3</v>
       </c>
       <c r="W36" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X36" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y36" t="n">
         <v>13.5</v>
@@ -5338,7 +5338,7 @@
         <v>980</v>
       </c>
       <c r="AG36" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
         <v>980</v>
@@ -5395,7 +5395,7 @@
         <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H37" t="n">
         <v>2.18</v>
@@ -5491,10 +5491,10 @@
         <v>75</v>
       </c>
       <c r="AM37" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN37" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO37" t="n">
         <v>24</v>
@@ -5530,28 +5530,28 @@
         <v>2.12</v>
       </c>
       <c r="G38" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H38" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K38" t="n">
         <v>3.7</v>
       </c>
-      <c r="I38" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L38" t="n">
         <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>1.66</v>
+        <v>2.92</v>
       </c>
       <c r="O38" t="n">
         <v>1.44</v>
@@ -5563,76 +5563,76 @@
         <v>2.06</v>
       </c>
       <c r="R38" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S38" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="T38" t="n">
-        <v>1.03</v>
+        <v>1.8</v>
       </c>
       <c r="U38" t="n">
-        <v>1.03</v>
+        <v>1.87</v>
       </c>
       <c r="V38" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W38" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X38" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="Y38" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="Z38" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB38" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AC38" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AD38" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AE38" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF38" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AG38" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AH38" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ38" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AK38" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL38" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
@@ -5665,7 +5665,7 @@
         <v>1.88</v>
       </c>
       <c r="G39" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H39" t="n">
         <v>4.3</v>
@@ -5677,7 +5677,7 @@
         <v>4</v>
       </c>
       <c r="K39" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L39" t="n">
         <v>1.33</v>
@@ -5686,34 +5686,34 @@
         <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O39" t="n">
         <v>1.24</v>
       </c>
       <c r="P39" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R39" t="n">
         <v>1.52</v>
       </c>
       <c r="S39" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T39" t="n">
         <v>1.68</v>
       </c>
       <c r="U39" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V39" t="n">
         <v>1.29</v>
       </c>
       <c r="W39" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X39" t="n">
         <v>20</v>
@@ -5740,7 +5740,7 @@
         <v>48</v>
       </c>
       <c r="AF39" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG39" t="n">
         <v>10</v>
@@ -5752,10 +5752,10 @@
         <v>50</v>
       </c>
       <c r="AJ39" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK39" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL39" t="n">
         <v>28</v>
@@ -5797,13 +5797,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.44</v>
+        <v>2.16</v>
       </c>
       <c r="G40" t="n">
         <v>2.6</v>
       </c>
       <c r="H40" t="n">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="I40" t="n">
         <v>3.25</v>
@@ -5812,7 +5812,7 @@
         <v>3.25</v>
       </c>
       <c r="K40" t="n">
-        <v>980</v>
+        <v>4.3</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5821,22 +5821,22 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="O40" t="n">
         <v>1.18</v>
       </c>
       <c r="P40" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q40" t="n">
         <v>1.7</v>
       </c>
       <c r="R40" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S40" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T40" t="n">
         <v>1.03</v>
@@ -5848,7 +5848,7 @@
         <v>1.44</v>
       </c>
       <c r="W40" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5944,10 +5944,10 @@
         <v>3.8</v>
       </c>
       <c r="J41" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K41" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3.8</v>
       </c>
       <c r="L41" t="n">
         <v>1.38</v>
@@ -5974,19 +5974,19 @@
         <v>3.35</v>
       </c>
       <c r="T41" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U41" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V41" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W41" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X41" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y41" t="n">
         <v>15</v>
@@ -5995,7 +5995,7 @@
         <v>26</v>
       </c>
       <c r="AA41" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB41" t="n">
         <v>10.5</v>
@@ -6025,16 +6025,16 @@
         <v>26</v>
       </c>
       <c r="AK41" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL41" t="n">
         <v>34</v>
       </c>
       <c r="AM41" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN41" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO41" t="n">
         <v>40</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G42" t="n">
         <v>1.96</v>
@@ -6079,7 +6079,7 @@
         <v>4.6</v>
       </c>
       <c r="J42" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K42" t="n">
         <v>4.4</v>
@@ -6088,10 +6088,10 @@
         <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>2.14</v>
+        <v>4.3</v>
       </c>
       <c r="O42" t="n">
         <v>1.24</v>
@@ -6103,16 +6103,16 @@
         <v>1.71</v>
       </c>
       <c r="R42" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="S42" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="T42" t="n">
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="U42" t="n">
-        <v>1.84</v>
+        <v>2.2</v>
       </c>
       <c r="V42" t="n">
         <v>1.28</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="G43" t="n">
         <v>1000</v>
@@ -6211,13 +6211,13 @@
         <v>1.3</v>
       </c>
       <c r="I43" t="n">
-        <v>1.46</v>
+        <v>2.5</v>
       </c>
       <c r="J43" t="n">
-        <v>5</v>
+        <v>1.03</v>
       </c>
       <c r="K43" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
@@ -6226,16 +6226,16 @@
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="O43" t="n">
         <v>1.23</v>
       </c>
       <c r="P43" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="R43" t="n">
         <v>1.38</v>
@@ -6250,10 +6250,10 @@
         <v>1.03</v>
       </c>
       <c r="V43" t="n">
-        <v>3.15</v>
+        <v>1.66</v>
       </c>
       <c r="W43" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6376,7 +6376,7 @@
         <v>1.61</v>
       </c>
       <c r="S44" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T44" t="n">
         <v>1.56</v>
@@ -6385,7 +6385,7 @@
         <v>2.68</v>
       </c>
       <c r="V44" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W44" t="n">
         <v>1.59</v>
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H45" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="I45" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="J45" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K45" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6511,7 +6511,7 @@
         <v>1.41</v>
       </c>
       <c r="S45" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="T45" t="n">
         <v>1.03</v>
@@ -6520,10 +6520,10 @@
         <v>1.03</v>
       </c>
       <c r="V45" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="W45" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
@@ -6748,7 +6748,7 @@
         <v>2.78</v>
       </c>
       <c r="H47" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
@@ -6757,7 +6757,7 @@
         <v>2.9</v>
       </c>
       <c r="K47" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -7285,19 +7285,19 @@
         <v>2.18</v>
       </c>
       <c r="G51" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I51" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K51" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L51" t="n">
         <v>1.3</v>
@@ -7306,16 +7306,16 @@
         <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O51" t="n">
         <v>1.01</v>
       </c>
       <c r="P51" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R51" t="n">
         <v>1.3</v>
@@ -7330,10 +7330,10 @@
         <v>1.01</v>
       </c>
       <c r="V51" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="W51" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="X51" t="n">
         <v>1000</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G52" t="n">
         <v>5</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="I52" t="n">
-        <v>2.68</v>
+        <v>2.46</v>
       </c>
       <c r="J52" t="n">
-        <v>2.36</v>
+        <v>2.88</v>
       </c>
       <c r="K52" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="L52" t="n">
         <v>1.01</v>
@@ -7441,16 +7441,16 @@
         <v>1.11</v>
       </c>
       <c r="N52" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="O52" t="n">
-        <v>1.12</v>
+        <v>1.47</v>
       </c>
       <c r="P52" t="n">
         <v>1.46</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="R52" t="n">
         <v>1.18</v>
@@ -7465,10 +7465,10 @@
         <v>1.01</v>
       </c>
       <c r="V52" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="W52" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="X52" t="n">
         <v>1000</v>
@@ -7477,16 +7477,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z52" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA52" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB52" t="n">
         <v>15</v>
       </c>
       <c r="AC52" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD52" t="n">
         <v>17</v>
@@ -7498,13 +7498,13 @@
         <v>40</v>
       </c>
       <c r="AG52" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH52" t="n">
         <v>34</v>
       </c>
       <c r="AI52" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ52" t="n">
         <v>1000</v>
@@ -7564,7 +7564,7 @@
         <v>6</v>
       </c>
       <c r="J53" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K53" t="n">
         <v>4.2</v>
@@ -7690,13 +7690,13 @@
         <v>7.4</v>
       </c>
       <c r="G54" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H54" t="n">
         <v>1.42</v>
       </c>
       <c r="I54" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="J54" t="n">
         <v>5.5</v>
@@ -7774,7 +7774,7 @@
         <v>22</v>
       </c>
       <c r="AI54" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AJ54" t="n">
         <v>280</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G55" t="n">
         <v>1.88</v>
@@ -7861,7 +7861,7 @@
         <v>1.56</v>
       </c>
       <c r="S55" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T55" t="n">
         <v>1.51</v>
@@ -7957,13 +7957,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G56" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="H56" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I56" t="n">
         <v>3.15</v>
@@ -7972,7 +7972,7 @@
         <v>3.5</v>
       </c>
       <c r="K56" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L56" t="n">
         <v>1.42</v>
@@ -7981,7 +7981,7 @@
         <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O56" t="n">
         <v>1.33</v>
@@ -7999,7 +7999,7 @@
         <v>3.5</v>
       </c>
       <c r="T56" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U56" t="n">
         <v>2.2</v>
@@ -8008,7 +8008,7 @@
         <v>1.47</v>
       </c>
       <c r="W56" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X56" t="n">
         <v>14</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="G57" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I57" t="n">
         <v>5.1</v>
       </c>
       <c r="J57" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K57" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K57" t="n">
-        <v>4.1</v>
       </c>
       <c r="L57" t="n">
         <v>1.38</v>
@@ -8122,7 +8122,7 @@
         <v>1.3</v>
       </c>
       <c r="P57" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q57" t="n">
         <v>1.88</v>
@@ -8131,19 +8131,19 @@
         <v>1.41</v>
       </c>
       <c r="S57" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T57" t="n">
         <v>1.82</v>
       </c>
       <c r="U57" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V57" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W57" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="X57" t="n">
         <v>15.5</v>
@@ -8158,25 +8158,25 @@
         <v>120</v>
       </c>
       <c r="AB57" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC57" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD57" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AE57" t="n">
         <v>65</v>
       </c>
       <c r="AF57" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG57" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH57" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI57" t="n">
         <v>65</v>
@@ -8185,16 +8185,16 @@
         <v>21</v>
       </c>
       <c r="AK57" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL57" t="n">
         <v>38</v>
       </c>
       <c r="AM57" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN57" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO57" t="n">
         <v>70</v>
@@ -8230,7 +8230,7 @@
         <v>1.62</v>
       </c>
       <c r="G58" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="H58" t="n">
         <v>6.4</v>
@@ -8242,7 +8242,7 @@
         <v>4.1</v>
       </c>
       <c r="K58" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L58" t="n">
         <v>1.39</v>
@@ -8251,7 +8251,7 @@
         <v>1.06</v>
       </c>
       <c r="N58" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O58" t="n">
         <v>1.31</v>
@@ -8266,10 +8266,10 @@
         <v>1.39</v>
       </c>
       <c r="S58" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T58" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U58" t="n">
         <v>1.98</v>
@@ -8278,61 +8278,61 @@
         <v>1.17</v>
       </c>
       <c r="W58" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="X58" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y58" t="n">
         <v>22</v>
       </c>
       <c r="Z58" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA58" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AB58" t="n">
         <v>8.4</v>
       </c>
       <c r="AC58" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG58" t="n">
         <v>9.6</v>
       </c>
-      <c r="AD58" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AH58" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI58" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ58" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK58" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AL58" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM58" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AN58" t="n">
         <v>9.4</v>
       </c>
       <c r="AO58" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
@@ -8365,16 +8365,16 @@
         <v>3.15</v>
       </c>
       <c r="G59" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H59" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="I59" t="n">
         <v>2.72</v>
       </c>
       <c r="J59" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K59" t="n">
         <v>3.15</v>
@@ -8389,16 +8389,16 @@
         <v>1.66</v>
       </c>
       <c r="O59" t="n">
-        <v>1.43</v>
+        <v>1.03</v>
       </c>
       <c r="P59" t="n">
         <v>1.66</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R59" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S59" t="n">
         <v>3.7</v>
@@ -8413,61 +8413,61 @@
         <v>1.58</v>
       </c>
       <c r="W59" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X59" t="n">
         <v>1000</v>
       </c>
       <c r="Y59" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA59" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB59" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC59" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD59" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF59" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG59" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH59" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI59" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK59" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL59" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM59" t="n">
         <v>1000</v>
       </c>
       <c r="AN59" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO59" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60">
@@ -8497,10 +8497,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="G60" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H60" t="n">
         <v>3.1</v>
@@ -8512,7 +8512,7 @@
         <v>2.84</v>
       </c>
       <c r="K60" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="L60" t="n">
         <v>1.01</v>
@@ -8545,7 +8545,7 @@
         <v>1.01</v>
       </c>
       <c r="V60" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W60" t="n">
         <v>1.6</v>
@@ -8683,7 +8683,7 @@
         <v>1.25</v>
       </c>
       <c r="W61" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X61" t="n">
         <v>1000</v>
@@ -8776,7 +8776,7 @@
         <v>2.16</v>
       </c>
       <c r="I62" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="J62" t="n">
         <v>2.8</v>
@@ -8794,16 +8794,16 @@
         <v>1.6</v>
       </c>
       <c r="O62" t="n">
-        <v>1.38</v>
+        <v>1.02</v>
       </c>
       <c r="P62" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q62" t="n">
         <v>1.98</v>
       </c>
       <c r="R62" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S62" t="n">
         <v>2</v>
@@ -8905,10 +8905,10 @@
         <v>2.2</v>
       </c>
       <c r="G63" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H63" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I63" t="n">
         <v>4.1</v>
@@ -8917,7 +8917,7 @@
         <v>2.62</v>
       </c>
       <c r="K63" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="L63" t="n">
         <v>1.01</v>
@@ -8926,13 +8926,13 @@
         <v>1.02</v>
       </c>
       <c r="N63" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="O63" t="n">
         <v>1.02</v>
       </c>
       <c r="P63" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q63" t="n">
         <v>2.26</v>
@@ -8950,7 +8950,7 @@
         <v>1.01</v>
       </c>
       <c r="V63" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W63" t="n">
         <v>1.5</v>
@@ -9052,7 +9052,7 @@
         <v>3.1</v>
       </c>
       <c r="K64" t="n">
-        <v>6.6</v>
+        <v>980</v>
       </c>
       <c r="L64" t="n">
         <v>1.42</v>
@@ -9073,10 +9073,10 @@
         <v>2.08</v>
       </c>
       <c r="R64" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S64" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T64" t="n">
         <v>1.01</v>
@@ -9178,16 +9178,16 @@
         <v>2.46</v>
       </c>
       <c r="H65" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="I65" t="n">
         <v>3.25</v>
       </c>
       <c r="J65" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K65" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9196,7 +9196,7 @@
         <v>1.04</v>
       </c>
       <c r="N65" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O65" t="n">
         <v>1.21</v>
@@ -9208,19 +9208,19 @@
         <v>1.66</v>
       </c>
       <c r="R65" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S65" t="n">
         <v>2.62</v>
       </c>
       <c r="T65" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="U65" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="V65" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W65" t="n">
         <v>1.68</v>
@@ -9235,7 +9235,7 @@
         <v>25</v>
       </c>
       <c r="AA65" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AB65" t="n">
         <v>14.5</v>
@@ -9247,7 +9247,7 @@
         <v>14.5</v>
       </c>
       <c r="AE65" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AF65" t="n">
         <v>19</v>
@@ -9259,16 +9259,16 @@
         <v>16</v>
       </c>
       <c r="AI65" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ65" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AK65" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL65" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AM65" t="n">
         <v>65</v>
@@ -9307,16 +9307,16 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G66" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="H66" t="n">
         <v>5.4</v>
       </c>
       <c r="I66" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J66" t="n">
         <v>4.6</v>
@@ -9331,13 +9331,13 @@
         <v>1.03</v>
       </c>
       <c r="N66" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O66" t="n">
         <v>1.15</v>
       </c>
       <c r="P66" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q66" t="n">
         <v>1.47</v>
@@ -9349,16 +9349,16 @@
         <v>2.16</v>
       </c>
       <c r="T66" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U66" t="n">
         <v>2.7</v>
       </c>
       <c r="V66" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W66" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="X66" t="n">
         <v>29</v>
@@ -9367,7 +9367,7 @@
         <v>32</v>
       </c>
       <c r="Z66" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA66" t="n">
         <v>120</v>
@@ -9379,7 +9379,7 @@
         <v>11.5</v>
       </c>
       <c r="AD66" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE66" t="n">
         <v>55</v>
@@ -9463,13 +9463,13 @@
         <v>1.01</v>
       </c>
       <c r="M67" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N67" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O67" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="P67" t="n">
         <v>1.61</v>
@@ -9496,58 +9496,58 @@
         <v>1.64</v>
       </c>
       <c r="X67" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y67" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z67" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA67" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB67" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC67" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD67" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE67" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF67" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG67" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH67" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI67" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ67" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK67" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL67" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM67" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN67" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO67" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68">
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="G69" t="n">
         <v>2.66</v>
@@ -9721,7 +9721,7 @@
         <v>2.84</v>
       </c>
       <c r="I69" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="J69" t="n">
         <v>3.65</v>
@@ -9745,7 +9745,7 @@
         <v>2.1</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R69" t="n">
         <v>1.43</v>
@@ -9757,10 +9757,10 @@
         <v>1.69</v>
       </c>
       <c r="U69" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V69" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W69" t="n">
         <v>1.6</v>
@@ -9772,13 +9772,13 @@
         <v>13</v>
       </c>
       <c r="Z69" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA69" t="n">
         <v>44</v>
       </c>
       <c r="AB69" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC69" t="n">
         <v>8</v>
@@ -9871,16 +9871,16 @@
         <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="O70" t="n">
         <v>1.01</v>
       </c>
       <c r="P70" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R70" t="n">
         <v>1.27</v>
@@ -10015,10 +10015,10 @@
         <v>2.14</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R71" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S71" t="n">
         <v>2.32</v>
@@ -10129,7 +10129,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J72" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="K72" t="n">
         <v>6.4</v>
@@ -10159,10 +10159,10 @@
         <v>2.2</v>
       </c>
       <c r="T72" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U72" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="V72" t="n">
         <v>1.12</v>
@@ -10252,22 +10252,22 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="L73" t="n">
         <v>1.01</v>
@@ -10276,19 +10276,19 @@
         <v>1.01</v>
       </c>
       <c r="N73" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="O73" t="n">
         <v>1.21</v>
       </c>
       <c r="P73" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q73" t="n">
         <v>1.56</v>
       </c>
       <c r="R73" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S73" t="n">
         <v>2.34</v>
@@ -10300,10 +10300,10 @@
         <v>1.01</v>
       </c>
       <c r="V73" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="W73" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X73" t="n">
         <v>1000</v>
@@ -10393,7 +10393,7 @@
         <v>1.8</v>
       </c>
       <c r="H74" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I74" t="n">
         <v>5.1</v>
@@ -10414,22 +10414,22 @@
         <v>4.1</v>
       </c>
       <c r="O74" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P74" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R74" t="n">
         <v>1.42</v>
       </c>
       <c r="S74" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T74" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U74" t="n">
         <v>2.12</v>
@@ -10438,7 +10438,7 @@
         <v>1.24</v>
       </c>
       <c r="W74" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X74" t="n">
         <v>17</v>
@@ -10483,7 +10483,7 @@
         <v>18.5</v>
       </c>
       <c r="AL74" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM74" t="n">
         <v>110</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G75" t="n">
         <v>1.55</v>
@@ -10531,10 +10531,10 @@
         <v>1.04</v>
       </c>
       <c r="I75" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="J75" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="K75" t="n">
         <v>1000</v>
@@ -10546,22 +10546,22 @@
         <v>1.01</v>
       </c>
       <c r="N75" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O75" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P75" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q75" t="n">
         <v>1.73</v>
       </c>
       <c r="R75" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S75" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T75" t="n">
         <v>1.01</v>
@@ -10570,7 +10570,7 @@
         <v>1.01</v>
       </c>
       <c r="V75" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="W75" t="n">
         <v>2.8</v>
@@ -10660,19 +10660,19 @@
         <v>3.25</v>
       </c>
       <c r="G76" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H76" t="n">
         <v>2.34</v>
       </c>
       <c r="I76" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J76" t="n">
         <v>3.1</v>
       </c>
       <c r="K76" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L76" t="n">
         <v>1.01</v>
@@ -10693,10 +10693,10 @@
         <v>1.98</v>
       </c>
       <c r="R76" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S76" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T76" t="n">
         <v>1.01</v>
@@ -10705,10 +10705,10 @@
         <v>1.01</v>
       </c>
       <c r="V76" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W76" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="X76" t="n">
         <v>1000</v>
@@ -10792,22 +10792,22 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="G77" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H77" t="n">
         <v>2.04</v>
       </c>
       <c r="I77" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J77" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K77" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L77" t="n">
         <v>1.45</v>
@@ -10822,16 +10822,16 @@
         <v>1.39</v>
       </c>
       <c r="P77" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R77" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S77" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T77" t="n">
         <v>1.01</v>
@@ -10840,7 +10840,7 @@
         <v>1.01</v>
       </c>
       <c r="V77" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W77" t="n">
         <v>1.3</v>
@@ -10927,10 +10927,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G78" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H78" t="n">
         <v>5.9</v>
@@ -10954,10 +10954,10 @@
         <v>2.48</v>
       </c>
       <c r="O78" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P78" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="Q78" t="n">
         <v>2.62</v>
@@ -11062,7 +11062,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G79" t="n">
         <v>2.46</v>
@@ -11083,91 +11083,91 @@
         <v>1.01</v>
       </c>
       <c r="M79" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="N79" t="n">
-        <v>1.58</v>
+        <v>2.64</v>
       </c>
       <c r="O79" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P79" t="n">
         <v>1.57</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R79" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S79" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="T79" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U79" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="V79" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W79" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="X79" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y79" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z79" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA79" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB79" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC79" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD79" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE79" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF79" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG79" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH79" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI79" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ79" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK79" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL79" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM79" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN79" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO79" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80">
@@ -11224,7 +11224,7 @@
         <v>2.26</v>
       </c>
       <c r="O80" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P80" t="n">
         <v>2.26</v>
@@ -11233,7 +11233,7 @@
         <v>1.63</v>
       </c>
       <c r="R80" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S80" t="n">
         <v>2.3</v>
@@ -11338,28 +11338,28 @@
         <v>4.2</v>
       </c>
       <c r="H81" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="I81" t="n">
         <v>2.56</v>
       </c>
       <c r="J81" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K81" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="L81" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="M81" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N81" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="O81" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P81" t="n">
         <v>1.37</v>
@@ -11374,10 +11374,10 @@
         <v>6.2</v>
       </c>
       <c r="T81" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="U81" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="V81" t="n">
         <v>1.64</v>
@@ -11386,58 +11386,58 @@
         <v>1.32</v>
       </c>
       <c r="X81" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="Y81" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z81" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AA81" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB81" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC81" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AD81" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AE81" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>160</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>390</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>170</v>
+      </c>
+      <c r="AO81" t="n">
         <v>65</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO81" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="82">
@@ -11467,112 +11467,112 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G82" t="n">
         <v>1.64</v>
       </c>
       <c r="H82" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="I82" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J82" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K82" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L82" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M82" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N82" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="O82" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="P82" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R82" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="S82" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="T82" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="U82" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="V82" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="W82" t="n">
         <v>2.52</v>
       </c>
       <c r="X82" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y82" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Z82" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AA82" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AB82" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="AC82" t="n">
-        <v>13.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD82" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AE82" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF82" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AG82" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>210</v>
+      </c>
+      <c r="AJ82" t="n">
         <v>15.5</v>
       </c>
-      <c r="AH82" t="n">
-        <v>48</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ82" t="n">
+      <c r="AK82" t="n">
         <v>22</v>
       </c>
-      <c r="AK82" t="n">
-        <v>30</v>
-      </c>
       <c r="AL82" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AM82" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AN82" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO82" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83">
@@ -11605,7 +11605,7 @@
         <v>2.3</v>
       </c>
       <c r="G83" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H83" t="n">
         <v>1.09</v>
@@ -11614,10 +11614,10 @@
         <v>3.95</v>
       </c>
       <c r="J83" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K83" t="n">
-        <v>4.1</v>
+        <v>500</v>
       </c>
       <c r="L83" t="n">
         <v>1.01</v>
@@ -11650,10 +11650,10 @@
         <v>1.01</v>
       </c>
       <c r="V83" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W83" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X83" t="n">
         <v>1000</v>
@@ -11740,7 +11740,7 @@
         <v>2.1</v>
       </c>
       <c r="G84" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H84" t="n">
         <v>3.2</v>
@@ -11749,10 +11749,10 @@
         <v>4.7</v>
       </c>
       <c r="J84" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K84" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="L84" t="n">
         <v>1.01</v>
@@ -11770,7 +11770,7 @@
         <v>1.51</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R84" t="n">
         <v>1.18</v>
@@ -11788,7 +11788,7 @@
         <v>1.27</v>
       </c>
       <c r="W84" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X84" t="n">
         <v>1000</v>
@@ -11872,10 +11872,10 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="G85" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="H85" t="n">
         <v>3.1</v>
@@ -11887,7 +11887,7 @@
         <v>3.15</v>
       </c>
       <c r="K85" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L85" t="n">
         <v>1.44</v>
@@ -11896,16 +11896,16 @@
         <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>1.76</v>
+        <v>3.35</v>
       </c>
       <c r="O85" t="n">
         <v>1.36</v>
       </c>
       <c r="P85" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="R85" t="n">
         <v>1.18</v>
@@ -11923,7 +11923,7 @@
         <v>1.42</v>
       </c>
       <c r="W85" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X85" t="n">
         <v>1000</v>
@@ -12007,22 +12007,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G86" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H86" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I86" t="n">
         <v>1.88</v>
       </c>
-      <c r="I86" t="n">
-        <v>1.9</v>
-      </c>
       <c r="J86" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K86" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L86" t="n">
         <v>1.39</v>
@@ -12040,25 +12040,25 @@
         <v>1.96</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R86" t="n">
         <v>1.38</v>
       </c>
       <c r="S86" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T86" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U86" t="n">
         <v>2.08</v>
       </c>
       <c r="V86" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W86" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X86" t="n">
         <v>14.5</v>
@@ -12091,7 +12091,7 @@
         <v>19</v>
       </c>
       <c r="AH86" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI86" t="n">
         <v>40</v>
@@ -12100,7 +12100,7 @@
         <v>120</v>
       </c>
       <c r="AK86" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL86" t="n">
         <v>70</v>
@@ -12148,7 +12148,7 @@
         <v>1.6</v>
       </c>
       <c r="H87" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I87" t="n">
         <v>7.2</v>
@@ -12157,7 +12157,7 @@
         <v>4.3</v>
       </c>
       <c r="K87" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L87" t="n">
         <v>1.39</v>
@@ -12172,7 +12172,7 @@
         <v>1.32</v>
       </c>
       <c r="P87" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q87" t="n">
         <v>1.98</v>
@@ -12277,7 +12277,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G88" t="n">
         <v>2.12</v>
@@ -12295,19 +12295,19 @@
         <v>3.5</v>
       </c>
       <c r="L88" t="n">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="M88" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N88" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O88" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P88" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q88" t="n">
         <v>2.36</v>
@@ -12319,10 +12319,10 @@
         <v>4.4</v>
       </c>
       <c r="T88" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U88" t="n">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="V88" t="n">
         <v>1.29</v>
@@ -12334,7 +12334,7 @@
         <v>10.5</v>
       </c>
       <c r="Y88" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z88" t="n">
         <v>32</v>
@@ -12364,7 +12364,7 @@
         <v>23</v>
       </c>
       <c r="AI88" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AJ88" t="n">
         <v>27</v>
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="G89" t="n">
         <v>1.8</v>
@@ -12421,10 +12421,10 @@
         <v>5.9</v>
       </c>
       <c r="I89" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J89" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K89" t="n">
         <v>3.75</v>
@@ -12433,10 +12433,10 @@
         <v>1.01</v>
       </c>
       <c r="M89" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N89" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="O89" t="n">
         <v>1.48</v>
@@ -12454,13 +12454,13 @@
         <v>4.1</v>
       </c>
       <c r="T89" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U89" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V89" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W89" t="n">
         <v>2.24</v>
@@ -12547,19 +12547,19 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="G90" t="n">
-        <v>2.66</v>
+        <v>980</v>
       </c>
       <c r="H90" t="n">
-        <v>2.78</v>
+        <v>1.09</v>
       </c>
       <c r="I90" t="n">
-        <v>4.7</v>
+        <v>85</v>
       </c>
       <c r="J90" t="n">
-        <v>2.42</v>
+        <v>3</v>
       </c>
       <c r="K90" t="n">
         <v>3.75</v>
@@ -12568,10 +12568,10 @@
         <v>1.01</v>
       </c>
       <c r="M90" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N90" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="O90" t="n">
         <v>1.45</v>
@@ -12589,16 +12589,16 @@
         <v>3.85</v>
       </c>
       <c r="T90" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U90" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V90" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="W90" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="X90" t="n">
         <v>1000</v>
@@ -12706,7 +12706,7 @@
         <v>1.01</v>
       </c>
       <c r="N91" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="O91" t="n">
         <v>1.14</v>
@@ -12724,10 +12724,10 @@
         <v>1.14</v>
       </c>
       <c r="T91" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U91" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V91" t="n">
         <v>1.01</v>
@@ -12817,112 +12817,112 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.65</v>
+        <v>1.04</v>
       </c>
       <c r="G92" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="H92" t="n">
-        <v>1.92</v>
+        <v>3.3</v>
       </c>
       <c r="I92" t="n">
-        <v>12.5</v>
+        <v>870</v>
       </c>
       <c r="J92" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K92" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P92" t="n">
         <v>1.56</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T92" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U92" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V92" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W92" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="93">
@@ -12952,19 +12952,19 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3.6</v>
+        <v>2.96</v>
       </c>
       <c r="G93" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="H93" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="I93" t="n">
-        <v>2.68</v>
+        <v>2.98</v>
       </c>
       <c r="J93" t="n">
-        <v>2.76</v>
+        <v>2.18</v>
       </c>
       <c r="K93" t="n">
         <v>3.05</v>
@@ -12976,16 +12976,16 @@
         <v>1.13</v>
       </c>
       <c r="N93" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="O93" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P93" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="Q93" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="R93" t="n">
         <v>1.12</v>
@@ -12994,16 +12994,16 @@
         <v>6.2</v>
       </c>
       <c r="T93" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U93" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V93" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="W93" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="X93" t="n">
         <v>1000</v>
@@ -13087,31 +13087,31 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G94" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="H94" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I94" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J94" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K94" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L94" t="n">
         <v>1.01</v>
       </c>
       <c r="M94" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N94" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="O94" t="n">
         <v>1.56</v>
@@ -13126,73 +13126,73 @@
         <v>1.18</v>
       </c>
       <c r="S94" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T94" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="U94" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="V94" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W94" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X94" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y94" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA94" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB94" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="AC94" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD94" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE94" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF94" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AG94" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH94" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI94" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AJ94" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AK94" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL94" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM94" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN94" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO94" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
     </row>
     <row r="95">
@@ -13222,112 +13222,112 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2.66</v>
+        <v>2.28</v>
       </c>
       <c r="G95" t="n">
-        <v>3.35</v>
+        <v>980</v>
       </c>
       <c r="H95" t="n">
-        <v>2.7</v>
+        <v>1.09</v>
       </c>
       <c r="I95" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="J95" t="n">
-        <v>3</v>
+        <v>2.56</v>
       </c>
       <c r="K95" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P95" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="Q95" t="n">
         <v>2.02</v>
       </c>
       <c r="R95" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S95" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T95" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U95" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V95" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="W95" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="X95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="96">
@@ -13357,13 +13357,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="G96" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="H96" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I96" t="n">
         <v>3.85</v>
@@ -13375,7 +13375,7 @@
         <v>3.35</v>
       </c>
       <c r="L96" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="M96" t="n">
         <v>1.11</v>
@@ -13390,7 +13390,7 @@
         <v>1.58</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R96" t="n">
         <v>1.21</v>
@@ -13399,7 +13399,7 @@
         <v>5</v>
       </c>
       <c r="T96" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="U96" t="n">
         <v>1.83</v>
@@ -13408,7 +13408,7 @@
         <v>1.35</v>
       </c>
       <c r="W96" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="X96" t="n">
         <v>9.6</v>
@@ -13417,7 +13417,7 @@
         <v>10.5</v>
       </c>
       <c r="Z96" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AA96" t="n">
         <v>75</v>
@@ -13429,28 +13429,28 @@
         <v>7.4</v>
       </c>
       <c r="AD96" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AE96" t="n">
         <v>55</v>
       </c>
       <c r="AF96" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AG96" t="n">
         <v>12.5</v>
       </c>
       <c r="AH96" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI96" t="n">
         <v>75</v>
       </c>
       <c r="AJ96" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AK96" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL96" t="n">
         <v>60</v>
@@ -13459,10 +13459,10 @@
         <v>200</v>
       </c>
       <c r="AN96" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AO96" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97">
@@ -13495,10 +13495,10 @@
         <v>2.84</v>
       </c>
       <c r="G97" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="H97" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I97" t="n">
         <v>3.2</v>
@@ -13510,16 +13510,16 @@
         <v>3.2</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P97" t="n">
         <v>1.52</v>
@@ -13528,76 +13528,76 @@
         <v>2.58</v>
       </c>
       <c r="R97" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S97" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T97" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U97" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V97" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W97" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X97" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="98">
@@ -13627,25 +13627,25 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G98" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H98" t="n">
         <v>5.6</v>
       </c>
       <c r="I98" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J98" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K98" t="n">
         <v>3.95</v>
       </c>
       <c r="L98" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="M98" t="n">
         <v>1.08</v>
@@ -13669,16 +13669,16 @@
         <v>4</v>
       </c>
       <c r="T98" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="U98" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="V98" t="n">
         <v>1.19</v>
       </c>
       <c r="W98" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="X98" t="n">
         <v>14.5</v>
@@ -13765,109 +13765,109 @@
         <v>2.4</v>
       </c>
       <c r="G99" t="n">
-        <v>980</v>
+        <v>2.94</v>
       </c>
       <c r="H99" t="n">
-        <v>1.09</v>
+        <v>2.8</v>
       </c>
       <c r="I99" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="J99" t="n">
-        <v>2.92</v>
+        <v>2.36</v>
       </c>
       <c r="K99" t="n">
         <v>3.3</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P99" t="n">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="R99" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S99" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="T99" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U99" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V99" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W99" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X99" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="100">
@@ -13897,112 +13897,112 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G100" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H100" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="I100" t="n">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="J100" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="K100" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="O100" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P100" t="n">
         <v>1.25</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="R100" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S100" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T100" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U100" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V100" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W100" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X100" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="101">
@@ -14056,13 +14056,13 @@
         <v>1.01</v>
       </c>
       <c r="N101" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="O101" t="n">
         <v>1.01</v>
       </c>
       <c r="P101" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q101" t="n">
         <v>2.26</v>
@@ -14080,7 +14080,7 @@
         <v>1.01</v>
       </c>
       <c r="V101" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W101" t="n">
         <v>1.53</v>
@@ -14173,28 +14173,28 @@
         <v>3.95</v>
       </c>
       <c r="H102" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I102" t="n">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="J102" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K102" t="n">
         <v>3.95</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M102" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P102" t="n">
         <v>1.96</v>
@@ -14203,76 +14203,76 @@
         <v>1.84</v>
       </c>
       <c r="R102" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S102" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T102" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U102" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V102" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="W102" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="103">
@@ -14314,100 +14314,100 @@
         <v>1000</v>
       </c>
       <c r="J103" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K103" t="n">
         <v>1000</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O103" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P103" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="R103" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S103" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="T103" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U103" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V103" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W103" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="104">
@@ -14455,16 +14455,16 @@
         <v>5.7</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P104" t="n">
         <v>1.56</v>
@@ -14473,76 +14473,76 @@
         <v>2</v>
       </c>
       <c r="R104" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T104" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U104" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V104" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W104" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="105">
@@ -14572,112 +14572,112 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="G105" t="n">
         <v>1.82</v>
       </c>
       <c r="H105" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I105" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J105" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K105" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="O105" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P105" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R105" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S105" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U105" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V105" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W105" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="X105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="106">
@@ -14707,16 +14707,16 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G106" t="n">
         <v>1.89</v>
       </c>
       <c r="H106" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="I106" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J106" t="n">
         <v>3.45</v>
@@ -14725,16 +14725,16 @@
         <v>3.85</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M106" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N106" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O106" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P106" t="n">
         <v>1.71</v>
@@ -14743,76 +14743,76 @@
         <v>2</v>
       </c>
       <c r="R106" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S106" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T106" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="U106" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="V106" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W106" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="X106" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y106" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z106" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA106" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB106" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC106" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD106" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE106" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AF106" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG106" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH106" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI106" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ106" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK106" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL106" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM106" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN106" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO106" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
